--- a/app/data/pools/bmo.xlsx
+++ b/app/data/pools/bmo.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lshysko\Desktop\Discovery\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AF2A25-9480-423B-9A88-E4DBDA12624F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="15" activeTab="18"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="500" firstSheet="6" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BMO_UR" sheetId="1" r:id="rId1"/>
@@ -27,8 +33,13 @@
     <sheet name="UR Pool (17) - Cemetary" sheetId="18" r:id="rId18"/>
     <sheet name="Pool Counts" sheetId="19" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -37,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3787" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3731" uniqueCount="173">
   <si>
     <t>ContractorName</t>
   </si>
@@ -561,7 +572,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -881,6 +892,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -928,7 +942,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -961,9 +975,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -996,6 +1027,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1171,31 +1219,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL19"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1:DT19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="16.23046875" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="11.4609375" customWidth="1"/>
-    <col min="5" max="5" width="20.23046875" customWidth="1"/>
-    <col min="6" max="6" width="24.23046875" customWidth="1"/>
-    <col min="7" max="7" width="28.4609375" customWidth="1"/>
-    <col min="8" max="8" width="8.53515625" customWidth="1"/>
-    <col min="9" max="9" width="28.4609375" customWidth="1"/>
-    <col min="10" max="10" width="8.3828125" customWidth="1"/>
-    <col min="11" max="22" width="7.23046875" customWidth="1"/>
-    <col min="23" max="1025" width="8.3828125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" customWidth="1"/>
+    <col min="9" max="9" width="28.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" customWidth="1"/>
+    <col min="11" max="22" width="7.21875" customWidth="1"/>
+    <col min="23" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1301,7 +1349,7 @@
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>33</v>
       </c>
@@ -1387,7 +1435,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>39</v>
       </c>
@@ -1470,7 +1518,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>45</v>
       </c>
@@ -1553,7 +1601,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>51</v>
       </c>
@@ -1646,7 +1694,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>59</v>
       </c>
@@ -1738,7 +1786,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>68</v>
       </c>
@@ -1766,9 +1814,7 @@
       <c r="I7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J7" s="8"/>
       <c r="M7" s="8" t="s">
         <v>38</v>
       </c>
@@ -1824,7 +1870,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>76</v>
       </c>
@@ -1911,7 +1957,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>83</v>
       </c>
@@ -1998,7 +2044,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>88</v>
       </c>
@@ -2085,7 +2131,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>97</v>
       </c>
@@ -2172,7 +2218,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>59</v>
       </c>
@@ -2257,7 +2303,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:38" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>110</v>
       </c>
@@ -2285,9 +2331,7 @@
       <c r="I13" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="J13" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="J13" s="10"/>
       <c r="K13" s="11" t="s">
         <v>38</v>
       </c>
@@ -2340,7 +2384,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>118</v>
       </c>
@@ -2421,7 +2465,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>169</v>
       </c>
@@ -2516,7 +2560,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>130</v>
       </c>
@@ -2544,9 +2588,7 @@
       <c r="I16" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J16" s="8"/>
       <c r="L16" s="8" t="s">
         <v>38</v>
       </c>
@@ -2605,7 +2647,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>138</v>
       </c>
@@ -2633,9 +2675,7 @@
       <c r="I17" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J17" s="8"/>
       <c r="L17" s="8" t="s">
         <v>38</v>
       </c>
@@ -2649,7 +2689,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>146</v>
       </c>
@@ -2732,7 +2772,7 @@
       <c r="AF18" s="10"/>
       <c r="AG18" s="10"/>
     </row>
-    <row r="19" spans="1:33" ht="26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>154</v>
       </c>
@@ -2760,9 +2800,7 @@
       <c r="I19" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="J19" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="J19" s="10"/>
       <c r="K19" s="11" t="s">
         <v>38</v>
       </c>
@@ -2799,7 +2837,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2810,19 +2848,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:F12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.3828125" customWidth="1"/>
+    <col min="1" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="27.88671875" customWidth="1"/>
+    <col min="10" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2875,7 +2915,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>146</v>
       </c>
@@ -2913,7 +2953,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>76</v>
       </c>
@@ -2951,7 +2991,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
     </row>
-    <row r="4" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>83</v>
       </c>
@@ -2989,7 +3029,7 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
     </row>
-    <row r="5" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>59</v>
       </c>
@@ -3027,7 +3067,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>88</v>
       </c>
@@ -3065,7 +3105,7 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>97</v>
       </c>
@@ -3103,7 +3143,7 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>169</v>
       </c>
@@ -3147,7 +3187,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>45</v>
       </c>
@@ -3182,7 +3222,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
@@ -3217,7 +3257,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>51</v>
       </c>
@@ -3262,7 +3302,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>59</v>
       </c>
@@ -3306,7 +3346,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
@@ -3338,7 +3378,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>130</v>
       </c>
@@ -3366,9 +3406,7 @@
       <c r="I14" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="J14" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J14" s="8"/>
       <c r="L14" s="8" t="s">
         <v>38</v>
       </c>
@@ -3382,7 +3420,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>68</v>
       </c>
@@ -3410,9 +3448,7 @@
       <c r="I15" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J15" s="8"/>
       <c r="M15" s="8" t="s">
         <v>38</v>
       </c>
@@ -3422,7 +3458,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3433,19 +3469,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:F12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.3828125" customWidth="1"/>
+    <col min="1" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="32.21875" customWidth="1"/>
+    <col min="10" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3498,7 +3536,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>146</v>
       </c>
@@ -3536,7 +3574,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>76</v>
       </c>
@@ -3574,7 +3612,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
     </row>
-    <row r="4" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>83</v>
       </c>
@@ -3612,7 +3650,7 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
     </row>
-    <row r="5" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>59</v>
       </c>
@@ -3650,7 +3688,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>88</v>
       </c>
@@ -3688,7 +3726,7 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>97</v>
       </c>
@@ -3726,7 +3764,7 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>169</v>
       </c>
@@ -3770,7 +3808,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>45</v>
       </c>
@@ -3805,7 +3843,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
@@ -3840,7 +3878,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>51</v>
       </c>
@@ -3885,7 +3923,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>59</v>
       </c>
@@ -3929,7 +3967,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
@@ -3961,7 +3999,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>130</v>
       </c>
@@ -3989,9 +4027,7 @@
       <c r="I14" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="J14" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J14" s="8"/>
       <c r="L14" s="8" t="s">
         <v>38</v>
       </c>
@@ -4005,7 +4041,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>68</v>
       </c>
@@ -4033,9 +4069,7 @@
       <c r="I15" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J15" s="8"/>
       <c r="M15" s="8" t="s">
         <v>38</v>
       </c>
@@ -4043,7 +4077,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>118</v>
       </c>
@@ -4081,7 +4115,7 @@
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
     </row>
-    <row r="17" spans="1:16" ht="51" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>110</v>
       </c>
@@ -4109,9 +4143,7 @@
       <c r="I17" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="J17" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="J17" s="10"/>
       <c r="K17" s="11" t="s">
         <v>38</v>
       </c>
@@ -4123,7 +4155,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4134,19 +4166,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:F12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.3828125" customWidth="1"/>
+    <col min="1" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" customWidth="1"/>
+    <col min="10" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4199,7 +4233,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>146</v>
       </c>
@@ -4237,7 +4271,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>76</v>
       </c>
@@ -4275,7 +4309,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
     </row>
-    <row r="4" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>83</v>
       </c>
@@ -4313,7 +4347,7 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
     </row>
-    <row r="5" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>59</v>
       </c>
@@ -4351,7 +4385,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>88</v>
       </c>
@@ -4389,7 +4423,7 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>97</v>
       </c>
@@ -4427,7 +4461,7 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>169</v>
       </c>
@@ -4471,7 +4505,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>45</v>
       </c>
@@ -4506,7 +4540,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
@@ -4541,7 +4575,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>51</v>
       </c>
@@ -4586,7 +4620,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>59</v>
       </c>
@@ -4630,7 +4664,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
@@ -4662,7 +4696,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>130</v>
       </c>
@@ -4690,9 +4724,7 @@
       <c r="I14" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="J14" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J14" s="8"/>
       <c r="L14" s="8" t="s">
         <v>38</v>
       </c>
@@ -4706,7 +4738,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>68</v>
       </c>
@@ -4734,9 +4766,7 @@
       <c r="I15" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J15" s="8"/>
       <c r="M15" s="8" t="s">
         <v>38</v>
       </c>
@@ -4744,7 +4774,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>118</v>
       </c>
@@ -4784,7 +4814,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4795,20 +4825,22 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="1025" width="8.3828125" customWidth="1"/>
+    <col min="2" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="10" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4861,7 +4893,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>146</v>
       </c>
@@ -4899,7 +4931,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>76</v>
       </c>
@@ -4937,7 +4969,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
     </row>
-    <row r="4" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>83</v>
       </c>
@@ -4975,7 +5007,7 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
     </row>
-    <row r="5" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>59</v>
       </c>
@@ -5013,7 +5045,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>88</v>
       </c>
@@ -5051,7 +5083,7 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>97</v>
       </c>
@@ -5089,7 +5121,7 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>169</v>
       </c>
@@ -5133,7 +5165,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>45</v>
       </c>
@@ -5168,7 +5200,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
@@ -5203,7 +5235,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>51</v>
       </c>
@@ -5248,7 +5280,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>59</v>
       </c>
@@ -5292,7 +5324,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
@@ -5324,7 +5356,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>130</v>
       </c>
@@ -5352,9 +5384,7 @@
       <c r="I14" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="J14" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J14" s="8"/>
       <c r="L14" s="8" t="s">
         <v>38</v>
       </c>
@@ -5368,7 +5398,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>68</v>
       </c>
@@ -5396,9 +5426,7 @@
       <c r="I15" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J15" s="8"/>
       <c r="M15" s="8" t="s">
         <v>38</v>
       </c>
@@ -5406,7 +5434,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="51" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>110</v>
       </c>
@@ -5434,9 +5462,7 @@
       <c r="I16" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="J16" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="J16" s="10"/>
       <c r="K16" s="11" t="s">
         <v>38</v>
       </c>
@@ -5448,7 +5474,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5459,19 +5485,21 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:F13"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.3828125" customWidth="1"/>
+    <col min="1" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" customWidth="1"/>
+    <col min="10" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5524,7 +5552,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>169</v>
       </c>
@@ -5568,7 +5596,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>45</v>
       </c>
@@ -5603,7 +5631,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>33</v>
       </c>
@@ -5638,7 +5666,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>51</v>
       </c>
@@ -5683,7 +5711,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>59</v>
       </c>
@@ -5727,7 +5755,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>39</v>
       </c>
@@ -5759,7 +5787,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>130</v>
       </c>
@@ -5787,9 +5815,7 @@
       <c r="I8" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J8" s="8"/>
       <c r="L8" s="8" t="s">
         <v>38</v>
       </c>
@@ -5803,7 +5829,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>68</v>
       </c>
@@ -5831,9 +5857,7 @@
       <c r="I9" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J9" s="8"/>
       <c r="M9" s="8" t="s">
         <v>38</v>
       </c>
@@ -5841,7 +5865,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>146</v>
       </c>
@@ -5879,7 +5903,7 @@
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>76</v>
       </c>
@@ -5917,7 +5941,7 @@
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
     </row>
-    <row r="12" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>83</v>
       </c>
@@ -5955,7 +5979,7 @@
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
     </row>
-    <row r="13" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>59</v>
       </c>
@@ -5993,7 +6017,7 @@
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
     </row>
-    <row r="14" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>88</v>
       </c>
@@ -6031,7 +6055,7 @@
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>97</v>
       </c>
@@ -6069,7 +6093,7 @@
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
     </row>
-    <row r="16" spans="1:17" ht="51" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>110</v>
       </c>
@@ -6097,9 +6121,7 @@
       <c r="I16" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="J16" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="J16" s="10"/>
       <c r="K16" s="11" t="s">
         <v>38</v>
       </c>
@@ -6109,7 +6131,7 @@
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
     </row>
-    <row r="17" spans="1:16" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>118</v>
       </c>
@@ -6149,7 +6171,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2" xr:uid="{00000000-0002-0000-0D00-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6160,29 +6182,29 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F6"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="16.15234375" customWidth="1"/>
-    <col min="3" max="3" width="8.3828125" customWidth="1"/>
-    <col min="4" max="4" width="6.61328125" customWidth="1"/>
-    <col min="5" max="5" width="29.3828125" customWidth="1"/>
-    <col min="6" max="6" width="11.765625" customWidth="1"/>
-    <col min="7" max="7" width="20.23046875" customWidth="1"/>
-    <col min="8" max="8" width="24.07421875" customWidth="1"/>
-    <col min="9" max="9" width="12.15234375" customWidth="1"/>
-    <col min="10" max="10" width="20.23046875" customWidth="1"/>
-    <col min="11" max="11" width="5.15234375" customWidth="1"/>
-    <col min="12" max="1025" width="8.3828125" customWidth="1"/>
+    <col min="1" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" customWidth="1"/>
+    <col min="8" max="8" width="24.109375" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="10" max="10" width="20.21875" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" customWidth="1"/>
+    <col min="12" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6235,7 +6257,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>169</v>
       </c>
@@ -6279,7 +6301,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>45</v>
       </c>
@@ -6314,7 +6336,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>33</v>
       </c>
@@ -6349,7 +6371,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>51</v>
       </c>
@@ -6394,7 +6416,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>59</v>
       </c>
@@ -6438,7 +6460,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>39</v>
       </c>
@@ -6470,7 +6492,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>130</v>
       </c>
@@ -6498,9 +6520,7 @@
       <c r="I8" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J8" s="8"/>
       <c r="L8" s="8" t="s">
         <v>38</v>
       </c>
@@ -6514,7 +6534,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>68</v>
       </c>
@@ -6542,9 +6562,7 @@
       <c r="I9" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J9" s="8"/>
       <c r="M9" s="8" t="s">
         <v>38</v>
       </c>
@@ -6552,7 +6570,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>146</v>
       </c>
@@ -6590,7 +6608,7 @@
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:17" ht="26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>76</v>
       </c>
@@ -6628,7 +6646,7 @@
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
     </row>
-    <row r="12" spans="1:17" ht="26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>83</v>
       </c>
@@ -6666,7 +6684,7 @@
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
     </row>
-    <row r="13" spans="1:17" ht="26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>88</v>
       </c>
@@ -6704,7 +6722,7 @@
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
     </row>
-    <row r="14" spans="1:17" ht="26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>97</v>
       </c>
@@ -6744,7 +6762,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2" xr:uid="{00000000-0002-0000-0E00-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6755,19 +6773,21 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:F12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.3828125" customWidth="1"/>
+    <col min="1" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.44140625" customWidth="1"/>
+    <col min="10" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6820,7 +6840,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>33</v>
       </c>
@@ -6855,7 +6875,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>39</v>
       </c>
@@ -6887,7 +6907,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>45</v>
       </c>
@@ -6922,7 +6942,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>51</v>
       </c>
@@ -6967,7 +6987,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>59</v>
       </c>
@@ -7011,7 +7031,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>68</v>
       </c>
@@ -7039,9 +7059,7 @@
       <c r="I7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J7" s="8"/>
       <c r="M7" s="8" t="s">
         <v>38</v>
       </c>
@@ -7049,7 +7067,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>76</v>
       </c>
@@ -7087,7 +7105,7 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>83</v>
       </c>
@@ -7125,7 +7143,7 @@
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
     </row>
-    <row r="10" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>88</v>
       </c>
@@ -7163,7 +7181,7 @@
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>97</v>
       </c>
@@ -7201,7 +7219,7 @@
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
     </row>
-    <row r="12" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>59</v>
       </c>
@@ -7239,7 +7257,7 @@
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
     </row>
-    <row r="13" spans="1:17" ht="51" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>110</v>
       </c>
@@ -7267,9 +7285,7 @@
       <c r="I13" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="J13" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="J13" s="10"/>
       <c r="K13" s="11" t="s">
         <v>38</v>
       </c>
@@ -7279,7 +7295,7 @@
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
     </row>
-    <row r="14" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>118</v>
       </c>
@@ -7319,7 +7335,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2" xr:uid="{00000000-0002-0000-0F00-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7330,19 +7346,22 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:F12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.3828125" customWidth="1"/>
+    <col min="1" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="25.21875" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7395,7 +7414,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>33</v>
       </c>
@@ -7430,7 +7449,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>39</v>
       </c>
@@ -7462,7 +7481,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>45</v>
       </c>
@@ -7497,7 +7516,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>51</v>
       </c>
@@ -7542,7 +7561,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>59</v>
       </c>
@@ -7586,7 +7605,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>68</v>
       </c>
@@ -7614,9 +7633,7 @@
       <c r="I7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J7" s="8"/>
       <c r="M7" s="8" t="s">
         <v>38</v>
       </c>
@@ -7624,7 +7641,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>76</v>
       </c>
@@ -7662,7 +7679,7 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>83</v>
       </c>
@@ -7700,7 +7717,7 @@
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
     </row>
-    <row r="10" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>88</v>
       </c>
@@ -7738,7 +7755,7 @@
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>97</v>
       </c>
@@ -7776,7 +7793,7 @@
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
     </row>
-    <row r="12" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>59</v>
       </c>
@@ -7814,7 +7831,7 @@
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
     </row>
-    <row r="13" spans="1:17" ht="51" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>110</v>
       </c>
@@ -7842,9 +7859,7 @@
       <c r="I13" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="J13" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="J13" s="10"/>
       <c r="K13" s="11" t="s">
         <v>38</v>
       </c>
@@ -7854,7 +7869,7 @@
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
     </row>
-    <row r="14" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>118</v>
       </c>
@@ -7892,7 +7907,7 @@
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>169</v>
       </c>
@@ -7936,7 +7951,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>130</v>
       </c>
@@ -7964,9 +7979,7 @@
       <c r="I16" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J16" s="8"/>
       <c r="L16" s="8" t="s">
         <v>38</v>
       </c>
@@ -7980,7 +7993,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>138</v>
       </c>
@@ -8008,16 +8021,14 @@
       <c r="I17" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J17" s="8"/>
       <c r="L17" s="8" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2" xr:uid="{00000000-0002-0000-1000-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8028,29 +8039,29 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="16.15234375" customWidth="1"/>
-    <col min="3" max="3" width="8.3828125" customWidth="1"/>
-    <col min="4" max="4" width="6.61328125" customWidth="1"/>
-    <col min="5" max="5" width="29.3828125" customWidth="1"/>
-    <col min="6" max="6" width="11.765625" customWidth="1"/>
-    <col min="7" max="7" width="20.23046875" customWidth="1"/>
-    <col min="8" max="8" width="24.07421875" customWidth="1"/>
-    <col min="9" max="9" width="12.15234375" customWidth="1"/>
-    <col min="10" max="10" width="20.23046875" customWidth="1"/>
-    <col min="11" max="11" width="28.07421875" customWidth="1"/>
-    <col min="12" max="1025" width="8.3828125" customWidth="1"/>
+    <col min="1" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" customWidth="1"/>
+    <col min="8" max="8" width="24.109375" customWidth="1"/>
+    <col min="9" max="9" width="28.44140625" customWidth="1"/>
+    <col min="10" max="10" width="20.21875" customWidth="1"/>
+    <col min="11" max="11" width="28.109375" customWidth="1"/>
+    <col min="12" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8103,7 +8114,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>169</v>
       </c>
@@ -8147,7 +8158,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>33</v>
       </c>
@@ -8182,7 +8193,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>39</v>
       </c>
@@ -8216,7 +8227,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2" xr:uid="{00000000-0002-0000-1100-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8227,16 +8238,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -8297,7 +8308,7 @@
       <c r="V1" s="7"/>
       <c r="W1" s="7"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>106974876</v>
       </c>
@@ -8353,7 +8364,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>170542906</v>
       </c>
@@ -8367,7 +8378,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>175515774</v>
       </c>
@@ -8415,7 +8426,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>616858908</v>
       </c>
@@ -8469,7 +8480,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>793374034</v>
       </c>
@@ -8523,7 +8534,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>808649888</v>
       </c>
@@ -8571,7 +8582,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>847316189</v>
       </c>
@@ -8624,7 +8635,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>47</v>
       </c>
@@ -8677,7 +8688,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>53</v>
       </c>
@@ -8730,7 +8741,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>78</v>
       </c>
@@ -8784,7 +8795,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>41</v>
       </c>
@@ -8840,7 +8851,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>61</v>
       </c>
@@ -8893,7 +8904,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>90</v>
       </c>
@@ -8947,7 +8958,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>132</v>
       </c>
@@ -8997,7 +9008,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>156</v>
       </c>
@@ -9027,7 +9038,7 @@
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17">
         <f>COUNTA(B2:B16)</f>
         <v>14</v>
@@ -9105,7 +9116,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1200-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -9116,27 +9127,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:F15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="16.15234375" customWidth="1"/>
-    <col min="3" max="3" width="8.3828125" customWidth="1"/>
-    <col min="4" max="4" width="6.61328125" customWidth="1"/>
-    <col min="5" max="5" width="29.3828125" customWidth="1"/>
-    <col min="6" max="6" width="11.765625" customWidth="1"/>
-    <col min="7" max="7" width="20.23046875" customWidth="1"/>
-    <col min="8" max="8" width="24.07421875" customWidth="1"/>
-    <col min="9" max="9" width="12.15234375" customWidth="1"/>
-    <col min="10" max="1025" width="8.3828125" customWidth="1"/>
+    <col min="1" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" customWidth="1"/>
+    <col min="8" max="8" width="24.109375" customWidth="1"/>
+    <col min="9" max="9" width="23.77734375" customWidth="1"/>
+    <col min="10" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9189,7 +9200,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>154</v>
       </c>
@@ -9217,9 +9228,7 @@
       <c r="I2" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="J2" s="10"/>
       <c r="K2" s="11" t="s">
         <v>38</v>
       </c>
@@ -9229,7 +9238,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:17" ht="26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>146</v>
       </c>
@@ -9267,7 +9276,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
     </row>
-    <row r="4" spans="1:17" ht="26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>76</v>
       </c>
@@ -9305,7 +9314,7 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
     </row>
-    <row r="5" spans="1:17" ht="26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>118</v>
       </c>
@@ -9343,7 +9352,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:17" ht="26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>83</v>
       </c>
@@ -9381,7 +9390,7 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:17" ht="26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>59</v>
       </c>
@@ -9419,7 +9428,7 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
     </row>
-    <row r="8" spans="1:17" ht="26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>88</v>
       </c>
@@ -9457,7 +9466,7 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="1:17" ht="26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>97</v>
       </c>
@@ -9495,7 +9504,7 @@
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
     </row>
-    <row r="10" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>110</v>
       </c>
@@ -9523,9 +9532,7 @@
       <c r="I10" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="J10" s="10"/>
       <c r="K10" s="11" t="s">
         <v>38</v>
       </c>
@@ -9535,7 +9542,7 @@
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>169</v>
       </c>
@@ -9579,7 +9586,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>45</v>
       </c>
@@ -9614,7 +9621,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>33</v>
       </c>
@@ -9649,7 +9656,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>51</v>
       </c>
@@ -9694,7 +9701,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>59</v>
       </c>
@@ -9738,7 +9745,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>39</v>
       </c>
@@ -9770,7 +9777,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>130</v>
       </c>
@@ -9798,9 +9805,7 @@
       <c r="I17" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J17" s="8"/>
       <c r="L17" s="8" t="s">
         <v>38</v>
       </c>
@@ -9814,7 +9819,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>68</v>
       </c>
@@ -9842,9 +9847,7 @@
       <c r="I18" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J18" s="8"/>
       <c r="M18" s="8" t="s">
         <v>38</v>
       </c>
@@ -9854,7 +9857,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -9865,20 +9868,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:F15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="1025" width="8.3828125" customWidth="1"/>
+    <col min="2" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="25.44140625" customWidth="1"/>
+    <col min="10" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9931,7 +9936,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>154</v>
       </c>
@@ -9959,9 +9964,7 @@
       <c r="I2" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="J2" s="10"/>
       <c r="K2" s="11" t="s">
         <v>38</v>
       </c>
@@ -9971,7 +9974,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>146</v>
       </c>
@@ -10009,7 +10012,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
     </row>
-    <row r="4" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>76</v>
       </c>
@@ -10047,7 +10050,7 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
     </row>
-    <row r="5" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>118</v>
       </c>
@@ -10085,7 +10088,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>83</v>
       </c>
@@ -10123,7 +10126,7 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>59</v>
       </c>
@@ -10161,7 +10164,7 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
     </row>
-    <row r="8" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>88</v>
       </c>
@@ -10199,7 +10202,7 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>97</v>
       </c>
@@ -10237,7 +10240,7 @@
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
     </row>
-    <row r="10" spans="1:17" ht="51" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>110</v>
       </c>
@@ -10265,9 +10268,7 @@
       <c r="I10" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="J10" s="10"/>
       <c r="K10" s="11" t="s">
         <v>38</v>
       </c>
@@ -10277,7 +10278,7 @@
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>169</v>
       </c>
@@ -10321,7 +10322,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>45</v>
       </c>
@@ -10356,7 +10357,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>33</v>
       </c>
@@ -10391,7 +10392,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>51</v>
       </c>
@@ -10436,7 +10437,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>59</v>
       </c>
@@ -10480,7 +10481,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>39</v>
       </c>
@@ -10512,7 +10513,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>130</v>
       </c>
@@ -10540,9 +10541,7 @@
       <c r="I17" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J17" s="8"/>
       <c r="L17" s="8" t="s">
         <v>38</v>
       </c>
@@ -10556,7 +10555,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>68</v>
       </c>
@@ -10584,9 +10583,7 @@
       <c r="I18" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J18" s="8"/>
       <c r="M18" s="8" t="s">
         <v>38</v>
       </c>
@@ -10596,7 +10593,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -10607,19 +10604,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.3828125" customWidth="1"/>
+    <col min="1" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10672,7 +10671,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>154</v>
       </c>
@@ -10700,9 +10699,7 @@
       <c r="I2" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="J2" s="10"/>
       <c r="K2" s="11" t="s">
         <v>38</v>
       </c>
@@ -10712,7 +10709,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>146</v>
       </c>
@@ -10750,7 +10747,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
     </row>
-    <row r="4" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>76</v>
       </c>
@@ -10788,7 +10785,7 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
     </row>
-    <row r="5" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>118</v>
       </c>
@@ -10826,7 +10823,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>83</v>
       </c>
@@ -10864,7 +10861,7 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>59</v>
       </c>
@@ -10902,7 +10899,7 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
     </row>
-    <row r="8" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>88</v>
       </c>
@@ -10940,7 +10937,7 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>97</v>
       </c>
@@ -10978,7 +10975,7 @@
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
     </row>
-    <row r="10" spans="1:17" ht="51" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>110</v>
       </c>
@@ -11006,9 +11003,7 @@
       <c r="I10" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="J10" s="10"/>
       <c r="K10" s="11" t="s">
         <v>38</v>
       </c>
@@ -11018,7 +11013,7 @@
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>169</v>
       </c>
@@ -11062,7 +11057,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>45</v>
       </c>
@@ -11097,7 +11092,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>33</v>
       </c>
@@ -11132,7 +11127,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>51</v>
       </c>
@@ -11177,7 +11172,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>59</v>
       </c>
@@ -11221,7 +11216,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>39</v>
       </c>
@@ -11253,7 +11248,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>130</v>
       </c>
@@ -11281,9 +11276,7 @@
       <c r="I17" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J17" s="8"/>
       <c r="L17" s="8" t="s">
         <v>38</v>
       </c>
@@ -11297,7 +11290,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>68</v>
       </c>
@@ -11325,9 +11318,7 @@
       <c r="I18" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J18" s="8"/>
       <c r="M18" s="8" t="s">
         <v>38</v>
       </c>
@@ -11337,7 +11328,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -11348,19 +11339,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:F15"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.3828125" customWidth="1"/>
+    <col min="1" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="27.109375" customWidth="1"/>
+    <col min="10" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11413,7 +11406,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>154</v>
       </c>
@@ -11441,9 +11434,7 @@
       <c r="I2" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="J2" s="10"/>
       <c r="K2" s="11" t="s">
         <v>38</v>
       </c>
@@ -11453,7 +11444,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>146</v>
       </c>
@@ -11491,7 +11482,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
     </row>
-    <row r="4" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>76</v>
       </c>
@@ -11529,7 +11520,7 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
     </row>
-    <row r="5" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>118</v>
       </c>
@@ -11567,7 +11558,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>83</v>
       </c>
@@ -11605,7 +11596,7 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>59</v>
       </c>
@@ -11643,7 +11634,7 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
     </row>
-    <row r="8" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>88</v>
       </c>
@@ -11681,7 +11672,7 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>97</v>
       </c>
@@ -11719,7 +11710,7 @@
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
     </row>
-    <row r="10" spans="1:17" ht="51" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>110</v>
       </c>
@@ -11747,9 +11738,7 @@
       <c r="I10" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="J10" s="10"/>
       <c r="K10" s="11" t="s">
         <v>38</v>
       </c>
@@ -11759,7 +11748,7 @@
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>169</v>
       </c>
@@ -11803,7 +11792,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>45</v>
       </c>
@@ -11838,7 +11827,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>33</v>
       </c>
@@ -11873,7 +11862,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>51</v>
       </c>
@@ -11918,7 +11907,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>59</v>
       </c>
@@ -11962,7 +11951,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>39</v>
       </c>
@@ -11994,7 +11983,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>130</v>
       </c>
@@ -12022,9 +12011,7 @@
       <c r="I17" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J17" s="8"/>
       <c r="L17" s="8" t="s">
         <v>38</v>
       </c>
@@ -12038,7 +12025,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>68</v>
       </c>
@@ -12066,9 +12053,7 @@
       <c r="I18" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J18" s="8"/>
       <c r="M18" s="8" t="s">
         <v>38</v>
       </c>
@@ -12078,7 +12063,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -12089,19 +12074,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F6"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.3828125" customWidth="1"/>
+    <col min="1" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="32.88671875" customWidth="1"/>
+    <col min="10" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12154,7 +12141,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>169</v>
       </c>
@@ -12198,7 +12185,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>45</v>
       </c>
@@ -12233,7 +12220,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>33</v>
       </c>
@@ -12268,7 +12255,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>51</v>
       </c>
@@ -12313,7 +12300,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>59</v>
       </c>
@@ -12357,7 +12344,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>39</v>
       </c>
@@ -12389,7 +12376,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>130</v>
       </c>
@@ -12417,9 +12404,7 @@
       <c r="I8" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J8" s="8"/>
       <c r="L8" s="8" t="s">
         <v>38</v>
       </c>
@@ -12433,7 +12418,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>68</v>
       </c>
@@ -12461,9 +12446,7 @@
       <c r="I9" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J9" s="8"/>
       <c r="M9" s="8" t="s">
         <v>38</v>
       </c>
@@ -12471,7 +12454,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>146</v>
       </c>
@@ -12509,7 +12492,7 @@
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>76</v>
       </c>
@@ -12547,7 +12530,7 @@
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
     </row>
-    <row r="12" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>83</v>
       </c>
@@ -12585,7 +12568,7 @@
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
     </row>
-    <row r="13" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>88</v>
       </c>
@@ -12623,7 +12606,7 @@
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
     </row>
-    <row r="14" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>97</v>
       </c>
@@ -12661,7 +12644,7 @@
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>59</v>
       </c>
@@ -12699,7 +12682,7 @@
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
     </row>
-    <row r="16" spans="1:17" ht="51" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>110</v>
       </c>
@@ -12727,9 +12710,7 @@
       <c r="I16" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="J16" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="J16" s="10"/>
       <c r="K16" s="11" t="s">
         <v>38</v>
       </c>
@@ -12739,7 +12720,7 @@
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
     </row>
-    <row r="17" spans="1:16" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>118</v>
       </c>
@@ -12777,7 +12758,7 @@
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>138</v>
       </c>
@@ -12805,16 +12786,14 @@
       <c r="I18" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J18" s="8"/>
       <c r="L18" s="8" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -12825,19 +12804,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F6"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.3828125" customWidth="1"/>
+    <col min="1" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="42.88671875" customWidth="1"/>
+    <col min="10" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12890,7 +12871,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>169</v>
       </c>
@@ -12934,7 +12915,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>45</v>
       </c>
@@ -12969,7 +12950,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>33</v>
       </c>
@@ -13004,7 +12985,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>51</v>
       </c>
@@ -13049,7 +13030,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>59</v>
       </c>
@@ -13093,7 +13074,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>39</v>
       </c>
@@ -13125,7 +13106,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>130</v>
       </c>
@@ -13153,9 +13134,7 @@
       <c r="I8" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J8" s="8"/>
       <c r="L8" s="8" t="s">
         <v>38</v>
       </c>
@@ -13169,7 +13148,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>68</v>
       </c>
@@ -13197,9 +13176,7 @@
       <c r="I9" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J9" s="8"/>
       <c r="M9" s="8" t="s">
         <v>38</v>
       </c>
@@ -13207,7 +13184,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>146</v>
       </c>
@@ -13245,7 +13222,7 @@
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>76</v>
       </c>
@@ -13283,7 +13260,7 @@
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
     </row>
-    <row r="12" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>83</v>
       </c>
@@ -13321,7 +13298,7 @@
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
     </row>
-    <row r="13" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>88</v>
       </c>
@@ -13359,7 +13336,7 @@
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
     </row>
-    <row r="14" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>97</v>
       </c>
@@ -13397,7 +13374,7 @@
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>59</v>
       </c>
@@ -13435,7 +13412,7 @@
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
     </row>
-    <row r="16" spans="1:17" ht="51" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>110</v>
       </c>
@@ -13463,9 +13440,7 @@
       <c r="I16" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="J16" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="J16" s="10"/>
       <c r="K16" s="11" t="s">
         <v>38</v>
       </c>
@@ -13475,7 +13450,7 @@
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
     </row>
-    <row r="17" spans="1:16" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>118</v>
       </c>
@@ -13513,7 +13488,7 @@
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>138</v>
       </c>
@@ -13541,16 +13516,14 @@
       <c r="I18" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J18" s="8"/>
       <c r="L18" s="8" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -13561,19 +13534,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F6"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.3828125" customWidth="1"/>
+    <col min="1" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="10" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13626,7 +13601,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>146</v>
       </c>
@@ -13664,7 +13639,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>76</v>
       </c>
@@ -13702,7 +13677,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
     </row>
-    <row r="4" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>118</v>
       </c>
@@ -13740,7 +13715,7 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
     </row>
-    <row r="5" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>83</v>
       </c>
@@ -13778,7 +13753,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>59</v>
       </c>
@@ -13816,7 +13791,7 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>88</v>
       </c>
@@ -13854,7 +13829,7 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
     </row>
-    <row r="8" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>97</v>
       </c>
@@ -13892,7 +13867,7 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="1:17" ht="51" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>110</v>
       </c>
@@ -13920,9 +13895,7 @@
       <c r="I9" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="J9" s="10"/>
       <c r="K9" s="11" t="s">
         <v>38</v>
       </c>
@@ -13932,7 +13905,7 @@
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>169</v>
       </c>
@@ -13976,7 +13949,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>45</v>
       </c>
@@ -14011,7 +13984,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>33</v>
       </c>
@@ -14046,7 +14019,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>51</v>
       </c>
@@ -14091,7 +14064,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>59</v>
       </c>
@@ -14135,7 +14108,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>39</v>
       </c>
@@ -14167,7 +14140,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>130</v>
       </c>
@@ -14195,9 +14168,7 @@
       <c r="I16" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J16" s="8"/>
       <c r="L16" s="8" t="s">
         <v>38</v>
       </c>
@@ -14211,7 +14182,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>68</v>
       </c>
@@ -14239,9 +14210,7 @@
       <c r="I17" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J17" s="8"/>
       <c r="M17" s="8" t="s">
         <v>38</v>
       </c>
@@ -14256,19 +14225,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:F14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.3828125" customWidth="1"/>
+    <col min="1" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24.88671875" customWidth="1"/>
+    <col min="10" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14321,7 +14292,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>146</v>
       </c>
@@ -14365,7 +14336,7 @@
       <c r="U2" s="10"/>
       <c r="V2" s="10"/>
     </row>
-    <row r="3" spans="1:22" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>76</v>
       </c>
@@ -14409,7 +14380,7 @@
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
     </row>
-    <row r="4" spans="1:22" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>118</v>
       </c>
@@ -14453,7 +14424,7 @@
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
     </row>
-    <row r="5" spans="1:22" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>83</v>
       </c>
@@ -14497,7 +14468,7 @@
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
     </row>
-    <row r="6" spans="1:22" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>59</v>
       </c>
@@ -14541,7 +14512,7 @@
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
     </row>
-    <row r="7" spans="1:22" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>88</v>
       </c>
@@ -14585,7 +14556,7 @@
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
     </row>
-    <row r="8" spans="1:22" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>97</v>
       </c>
@@ -14629,7 +14600,7 @@
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
     </row>
-    <row r="9" spans="1:22" ht="51" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>110</v>
       </c>
@@ -14657,9 +14628,7 @@
       <c r="I9" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="J9" s="10"/>
       <c r="K9" s="11" t="s">
         <v>38</v>
       </c>
@@ -14675,7 +14644,7 @@
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>169</v>
       </c>
@@ -14725,7 +14694,7 @@
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>45</v>
       </c>
@@ -14766,7 +14735,7 @@
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>33</v>
       </c>
@@ -14807,7 +14776,7 @@
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>51</v>
       </c>
@@ -14858,7 +14827,7 @@
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>59</v>
       </c>
@@ -14908,7 +14877,7 @@
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>39</v>
       </c>
@@ -14946,7 +14915,7 @@
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>130</v>
       </c>
@@ -14974,9 +14943,7 @@
       <c r="I16" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J16" s="8"/>
       <c r="L16" s="8" t="s">
         <v>38</v>
       </c>
@@ -14996,7 +14963,7 @@
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>68</v>
       </c>
@@ -15024,9 +14991,7 @@
       <c r="I17" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="J17" s="8"/>
       <c r="M17" s="8" t="s">
         <v>38</v>
       </c>

--- a/app/data/pools/bmo.xlsx
+++ b/app/data/pools/bmo.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lshysko\Desktop\Discovery\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AF2A25-9480-423B-9A88-E4DBDA12624F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="500" firstSheet="6" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="697" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BMO_UR" sheetId="1" r:id="rId1"/>
@@ -32,14 +26,10 @@
     <sheet name="UR Pool (16) - WstMgmt" sheetId="17" r:id="rId17"/>
     <sheet name="UR Pool (17) - Cemetary" sheetId="18" r:id="rId18"/>
     <sheet name="Pool Counts" sheetId="19" r:id="rId19"/>
+    <sheet name="ESRI_MAPINFO_SHEET" sheetId="20" state="veryHidden" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -48,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3731" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3788" uniqueCount="170">
   <si>
     <t>ContractorName</t>
   </si>
@@ -365,21 +355,6 @@
     <t>GS06Q16BQDU106</t>
   </si>
   <si>
-    <t>Jill Richardson</t>
-  </si>
-  <si>
-    <t>(270) 697-1200</t>
-  </si>
-  <si>
-    <t>jill.richardson@jjwws.com</t>
-  </si>
-  <si>
-    <t>Connie Rives</t>
-  </si>
-  <si>
-    <t>connie.rives@jjwws.com</t>
-  </si>
-  <si>
     <t>WW Contractors</t>
   </si>
   <si>
@@ -567,12 +542,18 @@
   </si>
   <si>
     <t>Courtney.Casey@jjwws.com</t>
+  </si>
+  <si>
+    <t>903-941-0484</t>
+  </si>
+  <si>
+    <t>rich.sahm@jjwws.com,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -615,7 +596,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -638,6 +619,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE6B8AF"/>
         <bgColor rgb="FFE6B8AF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -737,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -802,6 +789,15 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -892,11 +888,102 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>294147</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>126965</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="EsriDoNotEdit"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6390147" cy="1650965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5000" b="1" i="0" cap="none" spc="0">
+              <a:ln w="18000">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="140000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:noFill/>
+              <a:effectLst>
+                <a:outerShdw blurRad="25500" dist="23000" dir="7020000" algn="tl">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="50000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="Verdana"/>
+            </a:rPr>
+            <a:t>DO NOT EDIT </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5000" b="1" i="0" cap="none" spc="0">
+              <a:ln w="18000">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="140000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:noFill/>
+              <a:effectLst>
+                <a:outerShdw blurRad="25500" dist="23000" dir="7020000" algn="tl">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="50000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="Verdana"/>
+            </a:rPr>
+            <a:t> For Esri use only</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -942,7 +1029,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -975,26 +1062,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1027,23 +1097,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1219,31 +1272,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I23" sqref="I23"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.23046875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" customWidth="1"/>
-    <col min="7" max="7" width="28.44140625" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" customWidth="1"/>
-    <col min="9" max="9" width="28.44140625" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" customWidth="1"/>
-    <col min="11" max="22" width="7.21875" customWidth="1"/>
-    <col min="23" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.4609375" customWidth="1"/>
+    <col min="5" max="5" width="20.23046875" customWidth="1"/>
+    <col min="6" max="6" width="24.23046875" customWidth="1"/>
+    <col min="7" max="7" width="28.4609375" customWidth="1"/>
+    <col min="8" max="8" width="8.53515625" customWidth="1"/>
+    <col min="9" max="9" width="28.4609375" customWidth="1"/>
+    <col min="10" max="10" width="2.3046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="4.765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.69140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.07421875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.69140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.4609375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.23046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.84375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.3046875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.53515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.4609375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.23046875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.23046875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.07421875" bestFit="1" customWidth="1"/>
+    <col min="34" max="1025" width="8.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1349,7 +1419,7 @@
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>33</v>
       </c>
@@ -1435,7 +1505,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>39</v>
       </c>
@@ -1518,7 +1588,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>45</v>
       </c>
@@ -1601,7 +1671,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>51</v>
       </c>
@@ -1694,7 +1764,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>59</v>
       </c>
@@ -1786,7 +1856,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>68</v>
       </c>
@@ -1814,7 +1884,9 @@
       <c r="I7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="M7" s="8" t="s">
         <v>38</v>
       </c>
@@ -1870,7 +1942,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" ht="26" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>76</v>
       </c>
@@ -1881,13 +1953,13 @@
         <v>78</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>79</v>
@@ -1957,7 +2029,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" ht="26" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>83</v>
       </c>
@@ -2044,7 +2116,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" ht="26" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>88</v>
       </c>
@@ -2131,7 +2203,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" ht="26" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>97</v>
       </c>
@@ -2218,7 +2290,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" ht="26" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
         <v>59</v>
       </c>
@@ -2228,23 +2300,23 @@
       <c r="C12" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>109</v>
+      <c r="D12" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>169</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="11" t="s">
@@ -2303,35 +2375,37 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C13" s="10">
         <v>175515774</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="J13" s="10"/>
+      <c r="J13" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="K13" s="11" t="s">
         <v>38</v>
       </c>
@@ -2384,33 +2458,33 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" ht="26" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C14" s="14">
         <v>808649888</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="11" t="s">
@@ -2450,7 +2524,9 @@
       <c r="AA14" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AB14" s="10"/>
+      <c r="AB14" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="AC14" s="10" t="s">
         <v>38</v>
       </c>
@@ -2465,33 +2541,33 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C15" s="18">
         <v>616858908</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>129</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
@@ -2560,162 +2636,166 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="H16" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="J16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="U16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="X16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG16" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="J16" s="8"/>
-      <c r="L16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="S16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="T16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="U16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="V16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="W16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="X16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG16" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="C17" s="9">
         <v>170542906</v>
       </c>
       <c r="D17" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="J17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG17" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" ht="26" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="B18" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="L17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG17" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="C18" s="10">
         <v>106974876</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I18" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="11" t="s">
@@ -2772,35 +2852,37 @@
       <c r="AF18" s="10"/>
       <c r="AG18" s="10"/>
     </row>
-    <row r="19" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" ht="26" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="H19" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I19" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="J19" s="10"/>
+      <c r="J19" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="K19" s="11" t="s">
         <v>38</v>
       </c>
@@ -2837,7 +2919,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2848,21 +2930,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="27.88671875" customWidth="1"/>
-    <col min="10" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1025" width="8.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2912,36 +2990,36 @@
         <v>15</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C2" s="10">
         <v>106974876</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11" t="s">
@@ -2953,7 +3031,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>76</v>
       </c>
@@ -2964,13 +3042,13 @@
         <v>78</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>79</v>
@@ -2991,7 +3069,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
     </row>
-    <row r="4" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>83</v>
       </c>
@@ -3029,7 +3107,7 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
     </row>
-    <row r="5" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>59</v>
       </c>
@@ -3039,23 +3117,23 @@
       <c r="C5" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>109</v>
+      <c r="D5" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>169</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="11" t="s">
@@ -3067,7 +3145,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>88</v>
       </c>
@@ -3105,7 +3183,7 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>97</v>
       </c>
@@ -3143,34 +3221,34 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C8" s="9">
         <v>616858908</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="L8" s="8" t="s">
         <v>38</v>
       </c>
@@ -3187,7 +3265,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>45</v>
       </c>
@@ -3222,7 +3300,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
@@ -3257,7 +3335,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>51</v>
       </c>
@@ -3302,7 +3380,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
         <v>59</v>
       </c>
@@ -3313,13 +3391,13 @@
         <v>61</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>65</v>
@@ -3346,7 +3424,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
@@ -3378,35 +3456,37 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="H14" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="J14" s="8"/>
+      <c r="J14" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="L14" s="8" t="s">
         <v>38</v>
       </c>
@@ -3420,7 +3500,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>68</v>
       </c>
@@ -3448,7 +3528,9 @@
       <c r="I15" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J15" s="8"/>
+      <c r="J15" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="M15" s="8" t="s">
         <v>38</v>
       </c>
@@ -3458,7 +3540,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3469,21 +3551,17 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="32.21875" customWidth="1"/>
-    <col min="10" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1025" width="8.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3533,36 +3611,36 @@
         <v>15</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C2" s="10">
         <v>106974876</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11" t="s">
@@ -3574,7 +3652,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>76</v>
       </c>
@@ -3585,13 +3663,13 @@
         <v>78</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>79</v>
@@ -3612,7 +3690,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
     </row>
-    <row r="4" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>83</v>
       </c>
@@ -3650,7 +3728,7 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
     </row>
-    <row r="5" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>59</v>
       </c>
@@ -3660,23 +3738,23 @@
       <c r="C5" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>109</v>
+      <c r="D5" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>169</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="11" t="s">
@@ -3688,7 +3766,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>88</v>
       </c>
@@ -3726,7 +3804,7 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>97</v>
       </c>
@@ -3764,34 +3842,34 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C8" s="9">
         <v>616858908</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="L8" s="8" t="s">
         <v>38</v>
       </c>
@@ -3808,7 +3886,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>45</v>
       </c>
@@ -3843,7 +3921,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
@@ -3878,7 +3956,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>51</v>
       </c>
@@ -3923,7 +4001,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
         <v>59</v>
       </c>
@@ -3934,13 +4012,13 @@
         <v>61</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>65</v>
@@ -3967,7 +4045,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
@@ -3999,35 +4077,37 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="H14" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="J14" s="8"/>
+      <c r="J14" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="L14" s="8" t="s">
         <v>38</v>
       </c>
@@ -4041,7 +4121,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>68</v>
       </c>
@@ -4069,7 +4149,9 @@
       <c r="I15" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J15" s="8"/>
+      <c r="J15" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="M15" s="8" t="s">
         <v>38</v>
       </c>
@@ -4077,33 +4159,33 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C16" s="14">
         <v>808649888</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="11" t="s">
@@ -4115,35 +4197,37 @@
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
     </row>
-    <row r="17" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="51" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C17" s="10">
         <v>175515774</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="J17" s="10"/>
+      <c r="J17" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="K17" s="11" t="s">
         <v>38</v>
       </c>
@@ -4155,7 +4239,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4166,21 +4250,17 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" customWidth="1"/>
-    <col min="10" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1025" width="8.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4230,36 +4310,36 @@
         <v>15</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C2" s="10">
         <v>106974876</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11" t="s">
@@ -4271,7 +4351,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>76</v>
       </c>
@@ -4282,13 +4362,13 @@
         <v>78</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>79</v>
@@ -4309,7 +4389,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
     </row>
-    <row r="4" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>83</v>
       </c>
@@ -4347,7 +4427,7 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
     </row>
-    <row r="5" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>59</v>
       </c>
@@ -4357,23 +4437,23 @@
       <c r="C5" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>109</v>
+      <c r="D5" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>169</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="11" t="s">
@@ -4385,7 +4465,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>88</v>
       </c>
@@ -4423,7 +4503,7 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>97</v>
       </c>
@@ -4461,34 +4541,34 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C8" s="9">
         <v>616858908</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="L8" s="8" t="s">
         <v>38</v>
       </c>
@@ -4505,7 +4585,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>45</v>
       </c>
@@ -4540,7 +4620,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
@@ -4575,7 +4655,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>51</v>
       </c>
@@ -4620,7 +4700,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
         <v>59</v>
       </c>
@@ -4631,13 +4711,13 @@
         <v>61</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>65</v>
@@ -4664,7 +4744,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
@@ -4696,35 +4776,37 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="H14" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="J14" s="8"/>
+      <c r="J14" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="L14" s="8" t="s">
         <v>38</v>
       </c>
@@ -4738,7 +4820,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>68</v>
       </c>
@@ -4766,7 +4848,9 @@
       <c r="I15" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J15" s="8"/>
+      <c r="J15" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="M15" s="8" t="s">
         <v>38</v>
       </c>
@@ -4774,33 +4858,33 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C16" s="14">
         <v>808649888</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="11" t="s">
@@ -4814,7 +4898,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4825,22 +4909,18 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" customWidth="1"/>
-    <col min="10" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="2" max="1025" width="8.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4890,36 +4970,36 @@
         <v>15</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C2" s="10">
         <v>106974876</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11" t="s">
@@ -4931,7 +5011,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>76</v>
       </c>
@@ -4942,13 +5022,13 @@
         <v>78</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>79</v>
@@ -4969,7 +5049,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
     </row>
-    <row r="4" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>83</v>
       </c>
@@ -5007,7 +5087,7 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
     </row>
-    <row r="5" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>59</v>
       </c>
@@ -5017,23 +5097,23 @@
       <c r="C5" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>109</v>
+      <c r="D5" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>169</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="11" t="s">
@@ -5045,7 +5125,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>88</v>
       </c>
@@ -5083,7 +5163,7 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>97</v>
       </c>
@@ -5121,34 +5201,34 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C8" s="9">
         <v>616858908</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="L8" s="8" t="s">
         <v>38</v>
       </c>
@@ -5165,7 +5245,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>45</v>
       </c>
@@ -5200,7 +5280,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
@@ -5235,7 +5315,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>51</v>
       </c>
@@ -5280,7 +5360,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>59</v>
       </c>
@@ -5324,7 +5404,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
@@ -5356,35 +5436,37 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="H14" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="J14" s="8"/>
+      <c r="J14" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="L14" s="8" t="s">
         <v>38</v>
       </c>
@@ -5398,7 +5480,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>68</v>
       </c>
@@ -5426,7 +5508,9 @@
       <c r="I15" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J15" s="8"/>
+      <c r="J15" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="M15" s="8" t="s">
         <v>38</v>
       </c>
@@ -5434,35 +5518,37 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="51" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C16" s="10">
         <v>175515774</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="J16" s="10"/>
+      <c r="J16" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="K16" s="11" t="s">
         <v>38</v>
       </c>
@@ -5474,7 +5560,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2" xr:uid="{00000000-0002-0000-0C00-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5485,21 +5571,17 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="30.33203125" customWidth="1"/>
-    <col min="10" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1025" width="8.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5549,37 +5631,37 @@
         <v>15</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C2" s="9">
         <v>616858908</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="L2" s="8" t="s">
         <v>38</v>
       </c>
@@ -5596,7 +5678,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>45</v>
       </c>
@@ -5631,7 +5713,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>33</v>
       </c>
@@ -5666,7 +5748,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>51</v>
       </c>
@@ -5711,7 +5793,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>59</v>
       </c>
@@ -5755,7 +5837,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>39</v>
       </c>
@@ -5787,35 +5869,37 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="H8" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="J8" s="8"/>
+      <c r="J8" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="L8" s="8" t="s">
         <v>38</v>
       </c>
@@ -5829,7 +5913,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>68</v>
       </c>
@@ -5857,7 +5941,9 @@
       <c r="I9" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="8"/>
+      <c r="J9" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="M9" s="8" t="s">
         <v>38</v>
       </c>
@@ -5865,33 +5951,33 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C10" s="10">
         <v>106974876</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="11" t="s">
@@ -5903,7 +5989,7 @@
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>76</v>
       </c>
@@ -5914,13 +6000,13 @@
         <v>78</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>79</v>
@@ -5941,7 +6027,7 @@
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
     </row>
-    <row r="12" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>83</v>
       </c>
@@ -5979,7 +6065,7 @@
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
     </row>
-    <row r="13" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
         <v>59</v>
       </c>
@@ -5989,23 +6075,23 @@
       <c r="C13" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>109</v>
+      <c r="D13" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>169</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="11" t="s">
@@ -6017,7 +6103,7 @@
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
     </row>
-    <row r="14" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>88</v>
       </c>
@@ -6055,7 +6141,7 @@
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>97</v>
       </c>
@@ -6093,35 +6179,37 @@
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
     </row>
-    <row r="16" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="51" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C16" s="10">
         <v>175515774</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="J16" s="10"/>
+      <c r="J16" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="K16" s="11" t="s">
         <v>38</v>
       </c>
@@ -6131,33 +6219,33 @@
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
     </row>
-    <row r="17" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C17" s="14">
         <v>808649888</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="11" t="s">
@@ -6171,7 +6259,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2" xr:uid="{00000000-0002-0000-0D00-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6182,29 +6270,27 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" customWidth="1"/>
-    <col min="8" max="8" width="24.109375" customWidth="1"/>
-    <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="10" max="10" width="20.21875" customWidth="1"/>
-    <col min="11" max="11" width="5.109375" customWidth="1"/>
-    <col min="12" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="1" max="2" width="16.07421875" customWidth="1"/>
+    <col min="3" max="3" width="8.3046875" customWidth="1"/>
+    <col min="4" max="4" width="6.69140625" customWidth="1"/>
+    <col min="5" max="5" width="29.3046875" customWidth="1"/>
+    <col min="6" max="6" width="25.4609375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.07421875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.07421875" customWidth="1"/>
+    <col min="9" max="9" width="12.07421875" customWidth="1"/>
+    <col min="10" max="10" width="20.23046875" customWidth="1"/>
+    <col min="11" max="11" width="5.07421875" customWidth="1"/>
+    <col min="12" max="1025" width="8.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6254,37 +6340,37 @@
         <v>15</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C2" s="9">
         <v>616858908</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="L2" s="8" t="s">
         <v>38</v>
       </c>
@@ -6301,7 +6387,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>45</v>
       </c>
@@ -6336,7 +6422,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>33</v>
       </c>
@@ -6371,7 +6457,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>51</v>
       </c>
@@ -6416,7 +6502,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>59</v>
       </c>
@@ -6427,13 +6513,13 @@
         <v>61</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>65</v>
@@ -6460,7 +6546,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>39</v>
       </c>
@@ -6492,35 +6578,37 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="H8" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="J8" s="8"/>
+      <c r="J8" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="L8" s="8" t="s">
         <v>38</v>
       </c>
@@ -6534,7 +6622,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>68</v>
       </c>
@@ -6562,7 +6650,9 @@
       <c r="I9" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="8"/>
+      <c r="J9" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="M9" s="8" t="s">
         <v>38</v>
       </c>
@@ -6570,33 +6660,33 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="26" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C10" s="10">
         <v>106974876</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="11" t="s">
@@ -6608,7 +6698,7 @@
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="26" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>76</v>
       </c>
@@ -6619,13 +6709,13 @@
         <v>78</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>79</v>
@@ -6646,7 +6736,7 @@
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
     </row>
-    <row r="12" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="26" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>83</v>
       </c>
@@ -6684,7 +6774,7 @@
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
     </row>
-    <row r="13" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="26" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>88</v>
       </c>
@@ -6722,7 +6812,7 @@
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
     </row>
-    <row r="14" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="26" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>97</v>
       </c>
@@ -6762,7 +6852,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2" xr:uid="{00000000-0002-0000-0E00-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6773,21 +6863,17 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="22.44140625" customWidth="1"/>
-    <col min="10" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1025" width="8.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6837,10 +6923,10 @@
         <v>15</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>33</v>
       </c>
@@ -6875,7 +6961,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>39</v>
       </c>
@@ -6907,7 +6993,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>45</v>
       </c>
@@ -6942,7 +7028,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>51</v>
       </c>
@@ -6987,7 +7073,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>59</v>
       </c>
@@ -7031,7 +7117,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>68</v>
       </c>
@@ -7059,7 +7145,9 @@
       <c r="I7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="M7" s="8" t="s">
         <v>38</v>
       </c>
@@ -7067,7 +7155,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>76</v>
       </c>
@@ -7078,13 +7166,13 @@
         <v>78</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>79</v>
@@ -7105,7 +7193,7 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>83</v>
       </c>
@@ -7143,7 +7231,7 @@
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
     </row>
-    <row r="10" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>88</v>
       </c>
@@ -7181,7 +7269,7 @@
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>97</v>
       </c>
@@ -7219,7 +7307,7 @@
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
     </row>
-    <row r="12" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
         <v>59</v>
       </c>
@@ -7229,23 +7317,23 @@
       <c r="C12" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>109</v>
+      <c r="D12" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>169</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="11" t="s">
@@ -7257,35 +7345,37 @@
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
     </row>
-    <row r="13" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="51" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C13" s="10">
         <v>175515774</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="J13" s="10"/>
+      <c r="J13" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="K13" s="11" t="s">
         <v>38</v>
       </c>
@@ -7295,33 +7385,33 @@
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
     </row>
-    <row r="14" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C14" s="14">
         <v>808649888</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="11" t="s">
@@ -7335,7 +7425,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2" xr:uid="{00000000-0002-0000-0F00-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7346,22 +7436,17 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="25.21875" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="11" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1025" width="8.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7411,10 +7496,10 @@
         <v>15</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>33</v>
       </c>
@@ -7449,7 +7534,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>39</v>
       </c>
@@ -7481,7 +7566,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>45</v>
       </c>
@@ -7516,7 +7601,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>51</v>
       </c>
@@ -7561,7 +7646,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>59</v>
       </c>
@@ -7605,7 +7690,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>68</v>
       </c>
@@ -7633,7 +7718,9 @@
       <c r="I7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="M7" s="8" t="s">
         <v>38</v>
       </c>
@@ -7641,7 +7728,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>76</v>
       </c>
@@ -7652,13 +7739,13 @@
         <v>78</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>79</v>
@@ -7679,7 +7766,7 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>83</v>
       </c>
@@ -7717,7 +7804,7 @@
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
     </row>
-    <row r="10" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>88</v>
       </c>
@@ -7755,7 +7842,7 @@
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>97</v>
       </c>
@@ -7793,7 +7880,7 @@
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
     </row>
-    <row r="12" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
         <v>59</v>
       </c>
@@ -7803,23 +7890,23 @@
       <c r="C12" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>109</v>
+      <c r="D12" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>169</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="11" t="s">
@@ -7831,35 +7918,37 @@
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
     </row>
-    <row r="13" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="51" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C13" s="10">
         <v>175515774</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="J13" s="10"/>
+      <c r="J13" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="K13" s="11" t="s">
         <v>38</v>
       </c>
@@ -7869,33 +7958,33 @@
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
     </row>
-    <row r="14" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C14" s="14">
         <v>808649888</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="11" t="s">
@@ -7907,128 +7996,132 @@
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C15" s="9">
         <v>616858908</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="L15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="B16" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="E16" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="L15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="F16" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="H16" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="J16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="J16" s="8"/>
-      <c r="L16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="C17" s="9">
         <v>170542906</v>
       </c>
       <c r="D17" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="J17" s="8"/>
+      <c r="J17" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="L17" s="8" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2" xr:uid="{00000000-0002-0000-1000-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8039,29 +8132,27 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" customWidth="1"/>
-    <col min="8" max="8" width="24.109375" customWidth="1"/>
-    <col min="9" max="9" width="28.44140625" customWidth="1"/>
-    <col min="10" max="10" width="20.21875" customWidth="1"/>
-    <col min="11" max="11" width="28.109375" customWidth="1"/>
-    <col min="12" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="1" max="2" width="16.07421875" customWidth="1"/>
+    <col min="3" max="3" width="8.3046875" customWidth="1"/>
+    <col min="4" max="4" width="6.69140625" customWidth="1"/>
+    <col min="5" max="5" width="29.3046875" customWidth="1"/>
+    <col min="6" max="6" width="11.765625" customWidth="1"/>
+    <col min="7" max="7" width="20.23046875" customWidth="1"/>
+    <col min="8" max="8" width="24.07421875" customWidth="1"/>
+    <col min="9" max="9" width="12.07421875" customWidth="1"/>
+    <col min="10" max="10" width="20.23046875" customWidth="1"/>
+    <col min="11" max="11" width="28.07421875" customWidth="1"/>
+    <col min="12" max="1025" width="8.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8111,37 +8202,37 @@
         <v>15</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C2" s="9">
         <v>616858908</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="L2" s="8" t="s">
         <v>38</v>
       </c>
@@ -8158,7 +8249,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>33</v>
       </c>
@@ -8193,7 +8284,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>39</v>
       </c>
@@ -8227,7 +8318,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2" xr:uid="{00000000-0002-0000-1100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8238,16 +8329,14 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -8308,7 +8397,7 @@
       <c r="V1" s="7"/>
       <c r="W1" s="7"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
         <v>106974876</v>
       </c>
@@ -8364,7 +8453,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>170542906</v>
       </c>
@@ -8378,7 +8467,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>175515774</v>
       </c>
@@ -8426,7 +8515,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="18">
         <v>616858908</v>
       </c>
@@ -8480,7 +8569,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>793374034</v>
       </c>
@@ -8534,7 +8623,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>808649888</v>
       </c>
@@ -8582,7 +8671,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>847316189</v>
       </c>
@@ -8635,7 +8724,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>47</v>
       </c>
@@ -8688,7 +8777,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>53</v>
       </c>
@@ -8741,7 +8830,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>78</v>
       </c>
@@ -8795,7 +8884,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>41</v>
       </c>
@@ -8851,7 +8940,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>61</v>
       </c>
@@ -8904,7 +8993,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>90</v>
       </c>
@@ -8958,9 +9047,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>38</v>
@@ -9008,9 +9097,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>38</v>
@@ -9038,7 +9127,7 @@
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17">
         <f>COUNTA(B2:B16)</f>
         <v>14</v>
@@ -9109,14 +9198,14 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:R19">
-    <sortCondition ref="A2"/>
+  <sortState ref="A22:A38">
+    <sortCondition ref="A29"/>
   </sortState>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="A23:A1048576 A1:A21">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2" xr:uid="{00000000-0002-0000-1200-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -9127,27 +9216,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" customWidth="1"/>
-    <col min="8" max="8" width="24.109375" customWidth="1"/>
-    <col min="9" max="9" width="23.77734375" customWidth="1"/>
-    <col min="10" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="1" max="2" width="16.07421875" customWidth="1"/>
+    <col min="3" max="3" width="8.3046875" customWidth="1"/>
+    <col min="4" max="4" width="6.69140625" customWidth="1"/>
+    <col min="5" max="5" width="29.3046875" customWidth="1"/>
+    <col min="6" max="6" width="26.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.23046875" customWidth="1"/>
+    <col min="8" max="8" width="24.07421875" customWidth="1"/>
+    <col min="9" max="9" width="23.15234375" bestFit="1" customWidth="1"/>
+    <col min="10" max="1025" width="8.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9197,38 +9286,40 @@
         <v>15</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="26" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="H2" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="J2" s="10"/>
+      <c r="J2" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="K2" s="11" t="s">
         <v>38</v>
       </c>
@@ -9238,33 +9329,33 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="26" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C3" s="10">
         <v>106974876</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11" t="s">
@@ -9276,7 +9367,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
     </row>
-    <row r="4" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="26" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>76</v>
       </c>
@@ -9287,13 +9378,13 @@
         <v>78</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>79</v>
@@ -9314,33 +9405,33 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
     </row>
-    <row r="5" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="26" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C5" s="14">
         <v>808649888</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="11" t="s">
@@ -9352,7 +9443,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="26" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>83</v>
       </c>
@@ -9390,7 +9481,7 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="26" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>59</v>
       </c>
@@ -9400,23 +9491,23 @@
       <c r="C7" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>109</v>
+      <c r="D7" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="11" t="s">
@@ -9428,7 +9519,7 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
     </row>
-    <row r="8" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="26" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>88</v>
       </c>
@@ -9466,7 +9557,7 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="26" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>97</v>
       </c>
@@ -9504,35 +9595,37 @@
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
     </row>
-    <row r="10" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C10" s="10">
         <v>175515774</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="J10" s="10"/>
+      <c r="J10" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="K10" s="11" t="s">
         <v>38</v>
       </c>
@@ -9542,34 +9635,34 @@
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C11" s="9">
         <v>616858908</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="L11" s="8" t="s">
         <v>38</v>
       </c>
@@ -9586,7 +9679,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>45</v>
       </c>
@@ -9621,7 +9714,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>33</v>
       </c>
@@ -9656,7 +9749,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>51</v>
       </c>
@@ -9701,7 +9794,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
         <v>59</v>
       </c>
@@ -9712,13 +9805,13 @@
         <v>61</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>65</v>
@@ -9745,7 +9838,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>39</v>
       </c>
@@ -9777,35 +9870,37 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="H17" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="J17" s="8"/>
+      <c r="J17" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="L17" s="8" t="s">
         <v>38</v>
       </c>
@@ -9819,7 +9914,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>68</v>
       </c>
@@ -9847,7 +9942,9 @@
       <c r="I18" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J18" s="8"/>
+      <c r="J18" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="M18" s="8" t="s">
         <v>38</v>
       </c>
@@ -9857,7 +9954,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -9867,23 +9964,32 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="25.44140625" customWidth="1"/>
-    <col min="10" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="2" max="1025" width="8.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9933,38 +10039,40 @@
         <v>15</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="H2" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="J2" s="10"/>
+      <c r="J2" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="K2" s="11" t="s">
         <v>38</v>
       </c>
@@ -9974,33 +10082,33 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C3" s="10">
         <v>106974876</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11" t="s">
@@ -10012,7 +10120,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
     </row>
-    <row r="4" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>76</v>
       </c>
@@ -10023,13 +10131,13 @@
         <v>78</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>79</v>
@@ -10050,33 +10158,33 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
     </row>
-    <row r="5" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C5" s="14">
         <v>808649888</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="11" t="s">
@@ -10088,7 +10196,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>83</v>
       </c>
@@ -10126,7 +10234,7 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>59</v>
       </c>
@@ -10136,23 +10244,23 @@
       <c r="C7" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>109</v>
+      <c r="D7" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>169</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="11" t="s">
@@ -10164,7 +10272,7 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
     </row>
-    <row r="8" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>88</v>
       </c>
@@ -10202,7 +10310,7 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>97</v>
       </c>
@@ -10240,35 +10348,37 @@
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
     </row>
-    <row r="10" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="51" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C10" s="10">
         <v>175515774</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="J10" s="10"/>
+      <c r="J10" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="K10" s="11" t="s">
         <v>38</v>
       </c>
@@ -10278,34 +10388,34 @@
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C11" s="9">
         <v>616858908</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="L11" s="8" t="s">
         <v>38</v>
       </c>
@@ -10322,7 +10432,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>45</v>
       </c>
@@ -10357,7 +10467,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>33</v>
       </c>
@@ -10392,7 +10502,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>51</v>
       </c>
@@ -10437,7 +10547,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
         <v>59</v>
       </c>
@@ -10448,13 +10558,13 @@
         <v>61</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>65</v>
@@ -10481,7 +10591,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>39</v>
       </c>
@@ -10513,35 +10623,37 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="H17" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="J17" s="8"/>
+      <c r="J17" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="L17" s="8" t="s">
         <v>38</v>
       </c>
@@ -10555,7 +10667,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>68</v>
       </c>
@@ -10583,7 +10695,9 @@
       <c r="I18" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J18" s="8"/>
+      <c r="J18" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="M18" s="8" t="s">
         <v>38</v>
       </c>
@@ -10593,7 +10707,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -10604,21 +10718,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1025" width="8.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10668,38 +10778,40 @@
         <v>15</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="H2" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="J2" s="10"/>
+      <c r="J2" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="K2" s="11" t="s">
         <v>38</v>
       </c>
@@ -10709,33 +10821,33 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C3" s="10">
         <v>106974876</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11" t="s">
@@ -10747,7 +10859,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
     </row>
-    <row r="4" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>76</v>
       </c>
@@ -10758,13 +10870,13 @@
         <v>78</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>79</v>
@@ -10785,33 +10897,33 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
     </row>
-    <row r="5" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C5" s="14">
         <v>808649888</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="11" t="s">
@@ -10823,7 +10935,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>83</v>
       </c>
@@ -10861,7 +10973,7 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>59</v>
       </c>
@@ -10871,23 +10983,23 @@
       <c r="C7" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>109</v>
+      <c r="D7" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>169</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="11" t="s">
@@ -10899,7 +11011,7 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
     </row>
-    <row r="8" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>88</v>
       </c>
@@ -10937,7 +11049,7 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>97</v>
       </c>
@@ -10975,35 +11087,37 @@
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
     </row>
-    <row r="10" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="51" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C10" s="10">
         <v>175515774</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="J10" s="10"/>
+      <c r="J10" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="K10" s="11" t="s">
         <v>38</v>
       </c>
@@ -11013,34 +11127,34 @@
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C11" s="9">
         <v>616858908</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="L11" s="8" t="s">
         <v>38</v>
       </c>
@@ -11057,7 +11171,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>45</v>
       </c>
@@ -11092,7 +11206,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>33</v>
       </c>
@@ -11127,7 +11241,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>51</v>
       </c>
@@ -11172,7 +11286,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
         <v>59</v>
       </c>
@@ -11183,13 +11297,13 @@
         <v>61</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>65</v>
@@ -11216,7 +11330,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>39</v>
       </c>
@@ -11248,35 +11362,37 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="H17" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="J17" s="8"/>
+      <c r="J17" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="L17" s="8" t="s">
         <v>38</v>
       </c>
@@ -11290,7 +11406,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>68</v>
       </c>
@@ -11318,7 +11434,9 @@
       <c r="I18" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J18" s="8"/>
+      <c r="J18" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="M18" s="8" t="s">
         <v>38</v>
       </c>
@@ -11328,7 +11446,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -11339,21 +11457,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="27.109375" customWidth="1"/>
-    <col min="10" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1025" width="8.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11403,38 +11517,40 @@
         <v>15</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="H2" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="J2" s="10"/>
+      <c r="J2" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="K2" s="11" t="s">
         <v>38</v>
       </c>
@@ -11444,33 +11560,33 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C3" s="10">
         <v>106974876</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="11" t="s">
@@ -11482,7 +11598,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
     </row>
-    <row r="4" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>76</v>
       </c>
@@ -11493,13 +11609,13 @@
         <v>78</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>79</v>
@@ -11520,33 +11636,33 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
     </row>
-    <row r="5" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C5" s="14">
         <v>808649888</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="11" t="s">
@@ -11558,7 +11674,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>83</v>
       </c>
@@ -11596,7 +11712,7 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>59</v>
       </c>
@@ -11606,23 +11722,23 @@
       <c r="C7" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>109</v>
+      <c r="D7" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>169</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="11" t="s">
@@ -11634,7 +11750,7 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
     </row>
-    <row r="8" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>88</v>
       </c>
@@ -11672,7 +11788,7 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>97</v>
       </c>
@@ -11710,35 +11826,37 @@
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
     </row>
-    <row r="10" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="51" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C10" s="10">
         <v>175515774</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="J10" s="10"/>
+      <c r="J10" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="K10" s="11" t="s">
         <v>38</v>
       </c>
@@ -11748,34 +11866,34 @@
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C11" s="9">
         <v>616858908</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="L11" s="8" t="s">
         <v>38</v>
       </c>
@@ -11792,7 +11910,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>45</v>
       </c>
@@ -11827,7 +11945,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>33</v>
       </c>
@@ -11862,7 +11980,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>51</v>
       </c>
@@ -11907,7 +12025,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
         <v>59</v>
       </c>
@@ -11918,13 +12036,13 @@
         <v>61</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>65</v>
@@ -11951,7 +12069,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>39</v>
       </c>
@@ -11983,35 +12101,37 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="H17" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="J17" s="8"/>
+      <c r="J17" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="L17" s="8" t="s">
         <v>38</v>
       </c>
@@ -12025,7 +12145,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>68</v>
       </c>
@@ -12053,7 +12173,9 @@
       <c r="I18" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J18" s="8"/>
+      <c r="J18" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="M18" s="8" t="s">
         <v>38</v>
       </c>
@@ -12063,7 +12185,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -12074,21 +12196,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="32.88671875" customWidth="1"/>
-    <col min="10" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1025" width="8.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12138,37 +12256,37 @@
         <v>15</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C2" s="9">
         <v>616858908</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="L2" s="8" t="s">
         <v>38</v>
       </c>
@@ -12185,7 +12303,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>45</v>
       </c>
@@ -12220,7 +12338,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>33</v>
       </c>
@@ -12255,7 +12373,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>51</v>
       </c>
@@ -12300,7 +12418,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>59</v>
       </c>
@@ -12311,13 +12429,13 @@
         <v>61</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>65</v>
@@ -12344,7 +12462,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>39</v>
       </c>
@@ -12376,35 +12494,37 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="H8" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="J8" s="8"/>
+      <c r="J8" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="L8" s="8" t="s">
         <v>38</v>
       </c>
@@ -12418,7 +12538,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>68</v>
       </c>
@@ -12446,7 +12566,9 @@
       <c r="I9" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="8"/>
+      <c r="J9" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="M9" s="8" t="s">
         <v>38</v>
       </c>
@@ -12454,33 +12576,33 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C10" s="10">
         <v>106974876</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="11" t="s">
@@ -12492,7 +12614,7 @@
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>76</v>
       </c>
@@ -12503,13 +12625,13 @@
         <v>78</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>79</v>
@@ -12530,7 +12652,7 @@
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
     </row>
-    <row r="12" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>83</v>
       </c>
@@ -12568,7 +12690,7 @@
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
     </row>
-    <row r="13" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>88</v>
       </c>
@@ -12606,7 +12728,7 @@
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
     </row>
-    <row r="14" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>97</v>
       </c>
@@ -12644,7 +12766,7 @@
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>59</v>
       </c>
@@ -12654,23 +12776,23 @@
       <c r="C15" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>109</v>
+      <c r="D15" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>169</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="11" t="s">
@@ -12682,35 +12804,37 @@
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
     </row>
-    <row r="16" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="51" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C16" s="10">
         <v>175515774</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="J16" s="10"/>
+      <c r="J16" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="K16" s="11" t="s">
         <v>38</v>
       </c>
@@ -12720,33 +12844,33 @@
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
     </row>
-    <row r="17" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C17" s="14">
         <v>808649888</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="11" t="s">
@@ -12758,42 +12882,44 @@
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C18" s="9">
         <v>170542906</v>
       </c>
       <c r="D18" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="J18" s="8"/>
+      <c r="J18" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="L18" s="8" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -12804,21 +12930,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="42.88671875" customWidth="1"/>
-    <col min="10" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1025" width="8.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12868,37 +12990,37 @@
         <v>15</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C2" s="9">
         <v>616858908</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="L2" s="8" t="s">
         <v>38</v>
       </c>
@@ -12915,7 +13037,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>45</v>
       </c>
@@ -12950,7 +13072,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>33</v>
       </c>
@@ -12985,7 +13107,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>51</v>
       </c>
@@ -13030,7 +13152,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>59</v>
       </c>
@@ -13041,13 +13163,13 @@
         <v>61</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>65</v>
@@ -13074,7 +13196,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>39</v>
       </c>
@@ -13106,35 +13228,37 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="H8" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="J8" s="8"/>
+      <c r="J8" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="L8" s="8" t="s">
         <v>38</v>
       </c>
@@ -13148,7 +13272,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>68</v>
       </c>
@@ -13176,7 +13300,9 @@
       <c r="I9" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="8"/>
+      <c r="J9" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="M9" s="8" t="s">
         <v>38</v>
       </c>
@@ -13184,33 +13310,33 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C10" s="10">
         <v>106974876</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="11" t="s">
@@ -13222,7 +13348,7 @@
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>76</v>
       </c>
@@ -13233,13 +13359,13 @@
         <v>78</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>79</v>
@@ -13260,7 +13386,7 @@
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
     </row>
-    <row r="12" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>83</v>
       </c>
@@ -13298,7 +13424,7 @@
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
     </row>
-    <row r="13" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>88</v>
       </c>
@@ -13336,7 +13462,7 @@
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
     </row>
-    <row r="14" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>97</v>
       </c>
@@ -13374,7 +13500,7 @@
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>59</v>
       </c>
@@ -13384,23 +13510,23 @@
       <c r="C15" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>109</v>
+      <c r="D15" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>169</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="11" t="s">
@@ -13412,35 +13538,37 @@
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
     </row>
-    <row r="16" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="51" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C16" s="10">
         <v>175515774</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="J16" s="10"/>
+      <c r="J16" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="K16" s="11" t="s">
         <v>38</v>
       </c>
@@ -13450,33 +13578,33 @@
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
     </row>
-    <row r="17" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C17" s="14">
         <v>808649888</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="11" t="s">
@@ -13488,42 +13616,44 @@
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C18" s="9">
         <v>170542906</v>
       </c>
       <c r="D18" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="J18" s="8"/>
+      <c r="J18" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="L18" s="8" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="A2:I2">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -13534,21 +13664,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" customWidth="1"/>
-    <col min="10" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1025" width="8.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13598,36 +13724,36 @@
         <v>15</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C2" s="10">
         <v>106974876</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11" t="s">
@@ -13639,7 +13765,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>76</v>
       </c>
@@ -13650,13 +13776,13 @@
         <v>78</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>79</v>
@@ -13677,33 +13803,33 @@
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
     </row>
-    <row r="4" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C4" s="14">
         <v>808649888</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11" t="s">
@@ -13715,7 +13841,7 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
     </row>
-    <row r="5" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>83</v>
       </c>
@@ -13753,7 +13879,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>59</v>
       </c>
@@ -13763,23 +13889,23 @@
       <c r="C6" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>109</v>
+      <c r="D6" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>169</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="11" t="s">
@@ -13791,7 +13917,7 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>88</v>
       </c>
@@ -13829,7 +13955,7 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
     </row>
-    <row r="8" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>97</v>
       </c>
@@ -13867,35 +13993,37 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="51" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C9" s="10">
         <v>175515774</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="J9" s="10"/>
+      <c r="J9" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="K9" s="11" t="s">
         <v>38</v>
       </c>
@@ -13905,34 +14033,34 @@
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C10" s="9">
         <v>616858908</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="L10" s="8" t="s">
         <v>38</v>
       </c>
@@ -13949,7 +14077,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>45</v>
       </c>
@@ -13984,7 +14112,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>33</v>
       </c>
@@ -14019,7 +14147,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>51</v>
       </c>
@@ -14064,7 +14192,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>59</v>
       </c>
@@ -14108,7 +14236,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>39</v>
       </c>
@@ -14140,35 +14268,37 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="H16" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="J16" s="8"/>
+      <c r="J16" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="L16" s="8" t="s">
         <v>38</v>
       </c>
@@ -14182,7 +14312,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>68</v>
       </c>
@@ -14210,7 +14340,9 @@
       <c r="I17" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J17" s="8"/>
+      <c r="J17" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="M17" s="8" t="s">
         <v>38</v>
       </c>
@@ -14225,21 +14357,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="24.88671875" customWidth="1"/>
-    <col min="10" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1025" width="8.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14289,36 +14417,36 @@
         <v>15</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C2" s="10">
         <v>106974876</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11" t="s">
@@ -14336,7 +14464,7 @@
       <c r="U2" s="10"/>
       <c r="V2" s="10"/>
     </row>
-    <row r="3" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>76</v>
       </c>
@@ -14347,13 +14475,13 @@
         <v>78</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>79</v>
@@ -14380,33 +14508,33 @@
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
     </row>
-    <row r="4" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C4" s="14">
         <v>808649888</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11" t="s">
@@ -14424,7 +14552,7 @@
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
     </row>
-    <row r="5" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>83</v>
       </c>
@@ -14468,7 +14596,7 @@
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
     </row>
-    <row r="6" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>59</v>
       </c>
@@ -14478,23 +14606,23 @@
       <c r="C6" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>109</v>
+      <c r="D6" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>169</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="11" t="s">
@@ -14512,7 +14640,7 @@
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
     </row>
-    <row r="7" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>88</v>
       </c>
@@ -14556,7 +14684,7 @@
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
     </row>
-    <row r="8" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>97</v>
       </c>
@@ -14600,35 +14728,37 @@
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
     </row>
-    <row r="9" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="51" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C9" s="10">
         <v>175515774</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="J9" s="10"/>
+      <c r="J9" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="K9" s="11" t="s">
         <v>38</v>
       </c>
@@ -14644,33 +14774,33 @@
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C10" s="9">
         <v>616858908</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>38</v>
@@ -14694,7 +14824,7 @@
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>45</v>
       </c>
@@ -14735,7 +14865,7 @@
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>33</v>
       </c>
@@ -14776,7 +14906,7 @@
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>51</v>
       </c>
@@ -14827,7 +14957,7 @@
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
         <v>59</v>
       </c>
@@ -14838,13 +14968,13 @@
         <v>61</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>65</v>
@@ -14877,7 +15007,7 @@
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>39</v>
       </c>
@@ -14915,35 +15045,37 @@
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="H16" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="J16" s="8"/>
+      <c r="J16" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="L16" s="8" t="s">
         <v>38</v>
       </c>
@@ -14963,7 +15095,7 @@
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>68</v>
       </c>
@@ -14991,7 +15123,9 @@
       <c r="I17" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J17" s="8"/>
+      <c r="J17" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="M17" s="8" t="s">
         <v>38</v>
       </c>

--- a/app/data/pools/bmo.xlsx
+++ b/app/data/pools/bmo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lshysko\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\discovery\app\data\pools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC9D8B4-997A-40C8-93AF-9610CB8F308E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896FED4D-EA77-4A5F-8E0C-59DC2D0064FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="14" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BMO_UR" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3736" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3732" uniqueCount="170">
   <si>
     <t>ContractorName</t>
   </si>
@@ -2754,7 +2754,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="8.33203125" customWidth="1"/>
+    <col min="1" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="8.33203125" customWidth="1"/>
     <col min="18" max="26" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3368,7 +3370,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="8.33203125" customWidth="1"/>
+    <col min="1" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="8.33203125" customWidth="1"/>
     <col min="18" max="26" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4058,7 +4062,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="8.33203125" customWidth="1"/>
+    <col min="1" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="8.33203125" customWidth="1"/>
     <col min="18" max="26" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4711,7 +4717,9 @@
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="17" width="8.33203125" customWidth="1"/>
+    <col min="2" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="8.33203125" customWidth="1"/>
     <col min="18" max="26" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5363,7 +5371,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="8.33203125" customWidth="1"/>
+    <col min="1" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="8.33203125" customWidth="1"/>
     <col min="18" max="26" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6047,8 +6057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -6060,7 +6070,7 @@
     <col min="6" max="6" width="25.44140625" customWidth="1"/>
     <col min="7" max="7" width="12.109375" customWidth="1"/>
     <col min="8" max="8" width="24.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.21875" customWidth="1"/>
     <col min="11" max="11" width="5.109375" customWidth="1"/>
     <col min="12" max="17" width="8.33203125" customWidth="1"/>
@@ -6633,13 +6643,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="8.33203125" customWidth="1"/>
+    <col min="1" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="8.33203125" customWidth="1"/>
     <col min="18" max="26" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7199,11 +7211,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:J17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="8.33203125" customWidth="1"/>
     <col min="18" max="26" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7479,9 +7496,7 @@
       <c r="I7" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="J7" s="6"/>
       <c r="M7" s="6" t="s">
         <v>26</v>
       </c>
@@ -7707,9 +7722,7 @@
       <c r="I13" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="J13" s="6"/>
       <c r="K13" s="7" t="s">
         <v>26</v>
       </c>
@@ -7829,9 +7842,7 @@
       <c r="I16" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="J16" s="6"/>
       <c r="L16" s="6" t="s">
         <v>26</v>
       </c>
@@ -7873,9 +7884,7 @@
       <c r="I17" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="J17" s="6"/>
       <c r="L17" s="6" t="s">
         <v>26</v>
       </c>
@@ -8880,7 +8889,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="2:18" ht="15.75">
       <c r="B17" s="22">
         <f t="shared" ref="B17:R17" si="0">COUNTA(B2:B16)</f>
         <v>14</v>
@@ -9721,7 +9730,10 @@
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="17" width="8.33203125" customWidth="1"/>
+    <col min="3" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.5546875" customWidth="1"/>
+    <col min="11" max="17" width="8.33203125" customWidth="1"/>
     <col min="18" max="26" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10449,7 +10461,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="8.33203125" customWidth="1"/>
+    <col min="1" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="8.33203125" customWidth="1"/>
     <col min="18" max="26" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11177,7 +11191,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="8.33203125" customWidth="1"/>
+    <col min="1" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="8.33203125" customWidth="1"/>
     <col min="18" max="26" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11905,7 +11921,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="8.33203125" customWidth="1"/>
+    <col min="1" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="8.33203125" customWidth="1"/>
     <col min="18" max="26" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12628,7 +12646,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="8.33203125" customWidth="1"/>
+    <col min="1" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="8.33203125" customWidth="1"/>
     <col min="18" max="26" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13351,7 +13371,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="17" width="8.33203125" customWidth="1"/>
+    <col min="1" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="8.33203125" customWidth="1"/>
     <col min="18" max="26" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14041,7 +14063,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="22" width="8.33203125" customWidth="1"/>
+    <col min="1" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="22" width="8.33203125" customWidth="1"/>
     <col min="23" max="26" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
